--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Screeps\ScreepsKT-master\src\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_prg\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91BA8EA8-BDD2-4D0B-84CC-F175B4F0B716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A45B6A-8BA1-4091-9B2B-76EE31714E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="13" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="2" activeTab="13" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -3280,7 +3280,7 @@
   <dimension ref="C2:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_prg\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A45B6A-8BA1-4091-9B2B-76EE31714E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2797ABB-FE31-48DC-94EC-A16F8ABE0AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="2" activeTab="13" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="5" activeTab="14" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,11 @@
     <sheet name="Лист6" sheetId="12" r:id="rId12"/>
     <sheet name="рентабельность" sheetId="13" r:id="rId13"/>
     <sheet name="CLI" sheetId="14" r:id="rId14"/>
+    <sheet name="ІІ" sheetId="15" r:id="rId15"/>
+    <sheet name="Лист8" sheetId="16" r:id="rId16"/>
+    <sheet name="Лист9" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="256">
   <si>
     <t>O</t>
   </si>
@@ -741,6 +743,78 @@
   </si>
   <si>
     <t>https://docs.screeps.com/contributed/ps_ubuntu.html</t>
+  </si>
+  <si>
+    <t>настрій</t>
+  </si>
+  <si>
+    <t>здоров'я</t>
+  </si>
+  <si>
+    <t>кошти</t>
+  </si>
+  <si>
+    <t>ситість</t>
+  </si>
+  <si>
+    <t>спорт</t>
+  </si>
+  <si>
+    <t>розум</t>
+  </si>
+  <si>
+    <t>вроджені характеристики</t>
+  </si>
+  <si>
+    <t>сила</t>
+  </si>
+  <si>
+    <t>працездатність</t>
+  </si>
+  <si>
+    <t>ресторан</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>прод. Магазин</t>
+  </si>
+  <si>
+    <t>час</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>робота</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>рибалка</t>
+  </si>
+  <si>
+    <t>дім сон</t>
+  </si>
+  <si>
+    <t>відпочитість</t>
+  </si>
+  <si>
+    <t>наступне</t>
+  </si>
+  <si>
+    <t>унівеситет</t>
+  </si>
+  <si>
+    <t>види роботи</t>
   </si>
 </sst>
 </file>
@@ -951,7 +1025,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -987,6 +1061,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3279,7 +3359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4CF916-9E9B-467D-9265-A2F218F285FA}">
   <dimension ref="C2:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3468,6 +3548,228 @@
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{67ADA857-D40A-4ACB-B023-DABA2D77662A}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49167B47-56AF-4D2D-92B4-E9B119A484A7}">
+  <dimension ref="D1:Q14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J2" t="s">
+        <v>252</v>
+      </c>
+      <c r="K2" t="s">
+        <v>245</v>
+      </c>
+      <c r="N2" t="s">
+        <v>240</v>
+      </c>
+      <c r="O2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P2" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B941D0-15D1-42B7-8073-4BCB14AB8D43}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379635DD-7F3B-4120-8188-07CC402249DE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_prg\Screeps\screeps-kotlin-starter-master\src\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00prg\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2797ABB-FE31-48DC-94EC-A16F8ABE0AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EA0533-9A3D-4306-80DA-49280460D331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="5" activeTab="14" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="5" activeTab="10" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -1054,6 +1054,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1061,12 +1067,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1503,51 +1503,51 @@
         <v>6</v>
       </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="26" t="s">
+      <c r="Z4" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="26" t="s">
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="26" t="s">
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="26" t="s">
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="26" t="s">
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="26" t="s">
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AP4" s="27"/>
-      <c r="AQ4" s="28"/>
-      <c r="AR4" s="26" t="s">
+      <c r="AP4" s="29"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="27"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="26" t="s">
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="30"/>
+      <c r="AU4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="26" t="s">
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="30"/>
+      <c r="AX4" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="28"/>
+      <c r="AY4" s="29"/>
+      <c r="AZ4" s="30"/>
     </row>
     <row r="5" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D5" s="15" t="s">
@@ -3103,7 +3103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DE8EE-7D5E-4C95-ABF7-9D0F3C8F0550}">
   <dimension ref="J2:X20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
@@ -3556,7 +3556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49167B47-56AF-4D2D-92B4-E9B119A484A7}">
   <dimension ref="D1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3611,21 +3611,21 @@
       <c r="D3" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="29" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="26" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3633,19 +3633,19 @@
       <c r="D4" t="s">
         <v>241</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="29" t="s">
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="26" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3653,17 +3653,17 @@
       <c r="D5" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30" t="s">
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3671,21 +3671,21 @@
       <c r="D6" t="s">
         <v>248</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="29" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="29" t="s">
+      <c r="I6" s="27"/>
+      <c r="J6" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="26" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3693,39 +3693,39 @@
       <c r="D7" t="s">
         <v>251</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="29" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="29" t="s">
+      <c r="I7" s="27"/>
+      <c r="J7" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="K7" s="30"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>250</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="29" t="s">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="26" t="s">
         <v>249</v>
       </c>
     </row>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00prg\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EA0533-9A3D-4306-80DA-49280460D331}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2924EB0-FCA7-4CD4-8E66-B3AAFE43D45A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="5" activeTab="10" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="260">
   <si>
     <t>O</t>
   </si>
@@ -815,6 +815,18 @@
   </si>
   <si>
     <t>види роботи</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>St</t>
+  </si>
+  <si>
+    <t>Sp</t>
+  </si>
+  <si>
+    <t>Tr</t>
   </si>
 </sst>
 </file>
@@ -898,7 +910,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -956,6 +968,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,7 +1049,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1069,6 +1093,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3104,7 +3131,7 @@
   <dimension ref="J2:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3167,30 +3194,75 @@
       <c r="K6">
         <v>2</v>
       </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K7">
         <v>3</v>
       </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K8">
         <v>4</v>
       </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="S8" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="9" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K9">
         <v>5</v>
       </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="10" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K10">
         <v>6</v>
       </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="S10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="10:24" x14ac:dyDescent="0.25">
       <c r="K11">
         <v>7</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="10:24" x14ac:dyDescent="0.25">

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00prg\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2924EB0-FCA7-4CD4-8E66-B3AAFE43D45A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854E6002-1CD8-455B-9C13-E00598A3A8EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="5" activeTab="10" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="262">
   <si>
     <t>O</t>
   </si>
@@ -827,6 +827,12 @@
   </si>
   <si>
     <t>Tr</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Коефіцієнт</t>
   </si>
 </sst>
 </file>
@@ -1084,6 +1090,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1093,9 +1102,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1530,51 +1536,51 @@
         <v>6</v>
       </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="28" t="s">
+      <c r="Z4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="28" t="s">
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="28" t="s">
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="28" t="s">
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="28" t="s">
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="28" t="s">
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="28" t="s">
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="29"/>
-      <c r="AT4" s="30"/>
-      <c r="AU4" s="28" t="s">
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="33"/>
+      <c r="AU4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="30"/>
-      <c r="AX4" s="28" t="s">
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="33"/>
+      <c r="AX4" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="29"/>
-      <c r="AZ4" s="30"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="33"/>
     </row>
     <row r="5" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D5" s="15" t="s">
@@ -3128,23 +3134,42 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DE8EE-7D5E-4C95-ABF7-9D0F3C8F0550}">
-  <dimension ref="J2:X20"/>
+  <dimension ref="J2:AF20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="29" width="2.7109375" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="10:32" x14ac:dyDescent="0.25">
       <c r="J2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="4" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="AD2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="10:32" x14ac:dyDescent="0.25">
+      <c r="AD3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE3">
+        <v>5000</v>
+      </c>
+      <c r="AF3">
+        <f>AE3/450</f>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="10:32" x14ac:dyDescent="0.25">
       <c r="L4">
         <v>1</v>
       </c>
@@ -3185,12 +3210,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="10:32" x14ac:dyDescent="0.25">
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="AE5" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF5">
+        <f>(2*AF3+1.6*(AE2-AF3))/AE2*0.9</f>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="6" spans="10:32" x14ac:dyDescent="0.25">
       <c r="K6">
         <v>2</v>
       </c>
@@ -3210,54 +3242,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="10:32" x14ac:dyDescent="0.25">
       <c r="K7">
         <v>3</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="AE7">
+        <f>15*1000*24*30*AE2*AF5</f>
+        <v>354240000</v>
+      </c>
+    </row>
+    <row r="8" spans="10:32" x14ac:dyDescent="0.25">
       <c r="K8">
         <v>4</v>
       </c>
       <c r="O8">
         <v>2</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="28" t="s">
         <v>258</v>
       </c>
       <c r="S8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="10:32" x14ac:dyDescent="0.25">
       <c r="K9">
         <v>5</v>
       </c>
       <c r="O9">
         <v>3</v>
       </c>
-      <c r="Q9" s="32" t="s">
+      <c r="Q9" s="29" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="10:32" x14ac:dyDescent="0.25">
       <c r="K10">
         <v>6</v>
       </c>
       <c r="O10">
         <v>4</v>
       </c>
-      <c r="Q10" s="33" t="s">
+      <c r="Q10" s="30" t="s">
         <v>257</v>
       </c>
       <c r="S10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="10:32" x14ac:dyDescent="0.25">
       <c r="K11">
         <v>7</v>
       </c>
@@ -3265,27 +3301,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="10:32" x14ac:dyDescent="0.25">
       <c r="K12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="10:32" x14ac:dyDescent="0.25">
       <c r="K13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="10:32" x14ac:dyDescent="0.25">
       <c r="K14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="10:32" x14ac:dyDescent="0.25">
       <c r="K15">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="10:32" x14ac:dyDescent="0.25">
       <c r="K16">
         <v>12</v>
       </c>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00prg\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854E6002-1CD8-455B-9C13-E00598A3A8EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338E39D8-0B0B-4F5C-AF7B-CD84D9C85C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="5" activeTab="10" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="10" activeTab="10" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -3137,7 +3137,7 @@
   <dimension ref="J2:AF20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00prg\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338E39D8-0B0B-4F5C-AF7B-CD84D9C85C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B559934-7B43-4EF8-8CE5-3C4FFA17EA6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="10" activeTab="10" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="10" activeTab="16" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="CLI" sheetId="14" r:id="rId14"/>
     <sheet name="ІІ" sheetId="15" r:id="rId15"/>
     <sheet name="Лист8" sheetId="16" r:id="rId16"/>
-    <sheet name="Лист9" sheetId="17" r:id="rId17"/>
+    <sheet name="Main2" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="271">
   <si>
     <t>O</t>
   </si>
@@ -833,6 +833,33 @@
   </si>
   <si>
     <t>Коефіцієнт</t>
+  </si>
+  <si>
+    <t>Have</t>
+  </si>
+  <si>
+    <t>W5N3</t>
+  </si>
+  <si>
+    <t>W3N1</t>
+  </si>
+  <si>
+    <t>W8N2</t>
+  </si>
+  <si>
+    <t>W6N3</t>
+  </si>
+  <si>
+    <t>W3N5</t>
+  </si>
+  <si>
+    <t>W4N3</t>
+  </si>
+  <si>
+    <t>Deficit</t>
+  </si>
+  <si>
+    <t>W9N6</t>
   </si>
 </sst>
 </file>
@@ -916,7 +943,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,6 +1016,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1055,7 +1088,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1102,6 +1135,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3136,7 +3170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DE8EE-7D5E-4C95-ABF7-9D0F3C8F0550}">
   <dimension ref="J2:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
@@ -3872,12 +3906,258 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379635DD-7F3B-4120-8188-07CC402249DE}">
-  <dimension ref="A1"/>
+  <dimension ref="D1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="N2" t="s">
+        <v>262</v>
+      </c>
+      <c r="O2" t="s">
+        <v>269</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f>SUM(E3:M3)</f>
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <f>P3-N3</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>R3*0.5+S3</f>
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N9" si="0">SUM(E4:M4)</f>
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O9" si="1">P4-N4</f>
+        <v>-0.5</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P9" si="2">R4*0.5+S4</f>
+        <v>1.5</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00prg\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B559934-7B43-4EF8-8CE5-3C4FFA17EA6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2054E2-28CF-4E54-A2AB-1A7A1E33842A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="10" activeTab="16" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -32,6 +32,7 @@
     <sheet name="Main2" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1126,6 +1127,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1135,7 +1137,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1570,51 +1571,51 @@
         <v>6</v>
       </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="31" t="s">
+      <c r="Z4" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="31" t="s">
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="31" t="s">
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="31" t="s">
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="31" t="s">
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="31" t="s">
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="33"/>
-      <c r="AR4" s="31" t="s">
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="32"/>
-      <c r="AT4" s="33"/>
-      <c r="AU4" s="31" t="s">
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="33"/>
-      <c r="AX4" s="31" t="s">
+      <c r="AV4" s="33"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="33"/>
+      <c r="AY4" s="33"/>
+      <c r="AZ4" s="34"/>
     </row>
     <row r="5" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D5" s="15" t="s">
@@ -3909,7 +3910,7 @@
   <dimension ref="D1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3953,10 +3954,10 @@
       <c r="I2" t="s">
         <v>267</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="31" t="s">
         <v>270</v>
       </c>
       <c r="N2" t="s">

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00prg\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2054E2-28CF-4E54-A2AB-1A7A1E33842A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA496C4-905F-4CD0-9D79-4C034CDEADB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="10" activeTab="16" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="10" activeTab="10" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -3171,7 +3171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091DE8EE-7D5E-4C95-ABF7-9D0F3C8F0550}">
   <dimension ref="J2:AF20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
@@ -3909,8 +3909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379635DD-7F3B-4120-8188-07CC402249DE}">
   <dimension ref="D1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
